--- a/data/plantillas/plantilla_facturacion_diaria.xlsx
+++ b/data/plantillas/plantilla_facturacion_diaria.xlsx
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>46055</v>
+        <v>46066</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
